--- a/data_visualization/f12/data/mile.xlsx
+++ b/data_visualization/f12/data/mile.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="consumption" sheetId="4" r:id="rId1"/>
     <sheet name="mile" sheetId="5" r:id="rId2"/>
     <sheet name="velocity" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId5"/>
+    <sheet name="drive_mode" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>0~20</t>
   </si>
@@ -244,20 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Passat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiguan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驾驶模式
-\
-车速 [km/h]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,14 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lavida BEV-每日行驶里程3月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,6 +268,27 @@
   </si>
   <si>
     <t>Lavida BEV-percharging6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTC</t>
+  </si>
+  <si>
+    <t>NEDC</t>
+  </si>
+  <si>
+    <t>CLTC_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEDC_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLTP</t>
+  </si>
+  <si>
+    <t>WLTP_acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,9 +296,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="0.000"/>
+    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -354,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -371,10 +370,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -943,84 +943,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="7" t="s">
+      <c r="V1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3024,91 +3024,944 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.15069507142227451</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.15377490349335396</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.15341086759008124</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.15069507142227451</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.15377490349335396</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.15341086759008124</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.17530702596842632</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.17591867096358277</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.17596033729459887</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.17530702596842632</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.17591867096358277</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.17596033729459887</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.315</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>SUM(N$2:N2)</f>
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="R2" s="8">
+        <f>SUM(O$2:O2)</f>
+        <v>0.315</v>
+      </c>
+      <c r="S2" s="8">
+        <f>SUM(P$2:P2)</f>
+        <v>0.16550000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.13426901224772692</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.12873678702349658</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.12585726306578826</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.28496408367000142</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.28251169051685054</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.27926813065586953</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.1602639959918386</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.14728636936814798</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.14491287000897438</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.33557102196026489</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.32320504033173075</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.32087320730357327</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="O3" s="8">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>SUM(N$2:N3)</f>
+        <v>0.44809999999999994</v>
+      </c>
+      <c r="R3" s="8">
+        <f>SUM(O$2:O3)</f>
+        <v>0.40139999999999998</v>
+      </c>
+      <c r="S3" s="8">
+        <f>SUM(P$2:P3)</f>
+        <v>0.28150000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.14157691384032661</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.1298151984208025</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.12951593876529424</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.42654099751032803</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.41232688893765301</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.40878406942116374</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.16202999136311066</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.13831862304373663</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.13954145912253488</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.49760101332337558</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.46152366337546735</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.46041466642610818</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="O4" s="8">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0.1216</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>SUM(N$2:N4)</f>
+        <v>0.57469999999999999</v>
+      </c>
+      <c r="R4" s="8">
+        <f>SUM(O$2:O4)</f>
+        <v>0.46579999999999999</v>
+      </c>
+      <c r="S4" s="8">
+        <f>SUM(P$2:P4)</f>
+        <v>0.40310000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.14373675746825593</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.12707994199972564</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.12534997107898857</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.57027775497858402</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.53940683093737862</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.53413404050015234</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.15502141760501612</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.12846757228595568</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.1289541361581801</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.65262243092839167</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.58999123566142297</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.58936880258428825</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.1149</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="P5" s="8">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>SUM(N$2:N5)</f>
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="R5" s="8">
+        <f>SUM(O$2:O5)</f>
+        <v>0.64190000000000003</v>
+      </c>
+      <c r="S5" s="8">
+        <f>SUM(P$2:P5)</f>
+        <v>0.48580000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.13248915518347271</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.11757537170839052</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.11505945918379672</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.70276691016205672</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.65698220264576912</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.64919349968394902</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.1312432755167694</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.11359364686576434</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.11387635245733742</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.78386570644516107</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.70358488252718732</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.70324515504162566</v>
+      </c>
+      <c r="N6" s="8">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.1016</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>SUM(N$2:N6)</f>
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="R6" s="8">
+        <f>SUM(O$2:O6)</f>
+        <v>0.78670000000000007</v>
+      </c>
+      <c r="S6" s="8">
+        <f>SUM(P$2:P6)</f>
+        <v>0.58740000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.10709085326742847</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9.6101766279055117E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9.4491453203656262E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.80985776342948523</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.75308396892482421</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.74368495288760528</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9.5406061403850467E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9.0220625797192408E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>9.0383886975587191E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.87927176784901151</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.79380550832437968</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.79362904201721285</v>
+      </c>
+      <c r="N7" s="8">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1.61E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <f>SUM(N$2:N7)</f>
+        <v>0.88</v>
+      </c>
+      <c r="R7" s="8">
+        <f>SUM(O$2:O7)</f>
+        <v>0.80280000000000007</v>
+      </c>
+      <c r="S7" s="8">
+        <f>SUM(P$2:P7)</f>
+        <v>0.68180000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7.4235695025823889E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7.1564578560106812E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7.027497104543752E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.88409345845530907</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.82464854748493099</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.81395992393304284</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5.9451315748823674E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6.4219174073582699E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>6.3528594569548652E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.93872308359783518</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.85802468239796237</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.85715763658676147</v>
+      </c>
+      <c r="N8" s="8">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.1016</v>
+      </c>
+      <c r="P8" s="8">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <f>SUM(N$2:N8)</f>
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="R8" s="8">
+        <f>SUM(O$2:O8)</f>
+        <v>0.90440000000000009</v>
+      </c>
+      <c r="S8" s="8">
+        <f>SUM(P$2:P8)</f>
+        <v>0.75560000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5.0409017537139889E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5.3724192481218735E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5.4025657164559884E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.93450247599244896</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.87837273996614973</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.86798558109760271</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3.3899286885763373E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4.4194058732583939E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4.4466932652905952E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.97262237048359856</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.90221874113054634</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.90162456923966738</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="P9" s="8">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <f>SUM(N$2:N9)</f>
+        <v>0.95219999999999994</v>
+      </c>
+      <c r="R9" s="8">
+        <f>SUM(O$2:O9)</f>
+        <v>0.91630000000000011</v>
+      </c>
+      <c r="S9" s="8">
+        <f>SUM(P$2:P9)</f>
+        <v>0.80610000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2.8430594694171613E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3.6150556311452628E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3.6428261800242376E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.9629330706866206</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.91452329627760232</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.9044138428978451</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.4157345855703503E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2.8461311352910214E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2.8247041353558291E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.98677971633930206</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.93068005248345653</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.92987161059322565</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1.35E-2</v>
+      </c>
+      <c r="P10" s="8">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <f>SUM(N$2:N10)</f>
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="R10" s="8">
+        <f>SUM(O$2:O10)</f>
+        <v>0.92980000000000007</v>
+      </c>
+      <c r="S10" s="8">
+        <f>SUM(P$2:P10)</f>
+        <v>0.84830000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1.8902051623454593E-2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.3023733847306364E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.414034809892999E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.98183512231007519</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.94754703012490871</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.93855419099677506</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7.2681505639499199E-3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.6397042052664802E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2.6027706476899806E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.99404786690325198</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.95707709453612133</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.95589931707012543</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="P11" s="8">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>SUM(N$2:N11)</f>
+        <v>0.98</v>
+      </c>
+      <c r="R11" s="8">
+        <f>SUM(O$2:O11)</f>
+        <v>0.96880000000000011</v>
+      </c>
+      <c r="S11" s="8">
+        <f>SUM(P$2:P11)</f>
+        <v>0.89880000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1.0815937548448286E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.5915871072779217E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.8328633948570256E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.99265105985852353</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.97346290119768797</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.96688282494534528</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5.3189738891926052E-3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2.3767643710912108E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>2.0549063712789233E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.99936684079244453</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.98084473824703344</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.97644838078291463</v>
+      </c>
+      <c r="N12" s="8">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="P12" s="8">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>SUM(N$2:N12)</f>
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="R12" s="8">
+        <f>SUM(O$2:O12)</f>
+        <v>0.98070000000000013</v>
+      </c>
+      <c r="S12" s="8">
+        <f>SUM(P$2:P12)</f>
+        <v>0.92430000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5.9429898558786961E-3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.9797978549218092E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2.3551365997748052E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.99859404971440224</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.99326087974690602</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.99043419094309337</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4.778496697699471E-4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.2813913941491532E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.4757724234977012E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.99984469046221447</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.993658652188525</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.99120610501789164</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1.95E-2</v>
+      </c>
+      <c r="P13" s="8">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>SUM(N$2:N13)</f>
+        <v>0.9998999999999999</v>
+      </c>
+      <c r="R13" s="8">
+        <f>SUM(O$2:O13)</f>
+        <v>1.0002000000000002</v>
+      </c>
+      <c r="S13" s="8">
+        <f>SUM(P$2:P13)</f>
+        <v>0.9526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.4059502855979012E-3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6.7391202530938353E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>9.5658090569066198E-3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.5530953778538338E-4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6.3413478114748871E-3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>8.7938949821081969E-3</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>SUM(N$2:N14)</f>
+        <v>0.9998999999999999</v>
+      </c>
+      <c r="R14" s="8">
+        <f>SUM(O$2:O14)</f>
+        <v>1.0002000000000002</v>
+      </c>
+      <c r="S14" s="8">
+        <f>SUM(P$2:P14)</f>
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q3:S13" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B2">
-        <v>0.15069507142227451</v>
+        <v>0.85861038557622049</v>
       </c>
       <c r="C2">
-        <v>0.15377490349335396</v>
+        <v>6.0148665380391746E-3</v>
       </c>
       <c r="D2">
-        <v>0.15341086759008124</v>
+        <v>0.13537474788574028</v>
       </c>
       <c r="E2">
-        <v>0.15069507142227451</v>
+        <v>0.88078372431410201</v>
       </c>
       <c r="F2">
-        <v>0.15377490349335396</v>
+        <v>4.9852560742345451E-3</v>
       </c>
       <c r="G2">
-        <v>0.15341086759008124</v>
-      </c>
-      <c r="H2">
-        <v>0.17530702596842632</v>
-      </c>
-      <c r="I2">
-        <v>0.17591867096358277</v>
-      </c>
-      <c r="J2">
-        <v>0.17596033729459887</v>
-      </c>
-      <c r="K2">
-        <v>0.17530702596842632</v>
-      </c>
-      <c r="L2">
-        <v>0.17591867096358277</v>
-      </c>
-      <c r="M2">
-        <v>0.17596033729459887</v>
+        <v>0.11423101961166339</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3116,40 +3969,22 @@
         <v>56</v>
       </c>
       <c r="B3">
-        <v>0.13426901224772692</v>
+        <v>0.77241658029320059</v>
       </c>
       <c r="C3">
-        <v>0.12873678702349658</v>
+        <v>2.6942123379697758E-2</v>
       </c>
       <c r="D3">
-        <v>0.12585726306578826</v>
+        <v>0.20064129632710165</v>
       </c>
       <c r="E3">
-        <v>0.28496408367000142</v>
+        <v>0.81421044564155509</v>
       </c>
       <c r="F3">
-        <v>0.28251169051685054</v>
+        <v>2.2255299738314166E-2</v>
       </c>
       <c r="G3">
-        <v>0.27926813065586953</v>
-      </c>
-      <c r="H3">
-        <v>0.1602639959918386</v>
-      </c>
-      <c r="I3">
-        <v>0.14728636936814798</v>
-      </c>
-      <c r="J3">
-        <v>0.14491287000897438</v>
-      </c>
-      <c r="K3">
-        <v>0.33557102196026489</v>
-      </c>
-      <c r="L3">
-        <v>0.32320504033173075</v>
-      </c>
-      <c r="M3">
-        <v>0.32087320730357327</v>
+        <v>0.1635342546201308</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -3157,40 +3992,22 @@
         <v>57</v>
       </c>
       <c r="B4">
-        <v>0.14157691384032661</v>
+        <v>0.65809867729116689</v>
       </c>
       <c r="C4">
-        <v>0.1298151984208025</v>
+        <v>3.6433815338863189E-2</v>
       </c>
       <c r="D4">
-        <v>0.12951593876529424</v>
+        <v>0.30546750736996992</v>
       </c>
       <c r="E4">
-        <v>0.42654099751032803</v>
+        <v>0.72871938098072431</v>
       </c>
       <c r="F4">
-        <v>0.41232688893765301</v>
+        <v>2.5015338125543702E-2</v>
       </c>
       <c r="G4">
-        <v>0.40878406942116374</v>
-      </c>
-      <c r="H4">
-        <v>0.16202999136311066</v>
-      </c>
-      <c r="I4">
-        <v>0.13831862304373663</v>
-      </c>
-      <c r="J4">
-        <v>0.13954145912253488</v>
-      </c>
-      <c r="K4">
-        <v>0.49760101332337558</v>
-      </c>
-      <c r="L4">
-        <v>0.46152366337546735</v>
-      </c>
-      <c r="M4">
-        <v>0.46041466642610818</v>
+        <v>0.24626528089373198</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -3198,40 +4015,22 @@
         <v>58</v>
       </c>
       <c r="B5">
-        <v>0.14373675746825593</v>
+        <v>0.61941449041994634</v>
       </c>
       <c r="C5">
-        <v>0.12707994199972564</v>
+        <v>2.9094541467885194E-2</v>
       </c>
       <c r="D5">
-        <v>0.12534997107898857</v>
+        <v>0.3514909681121684</v>
       </c>
       <c r="E5">
-        <v>0.57027775497858402</v>
+        <v>0.6839924268785943</v>
       </c>
       <c r="F5">
-        <v>0.53940683093737862</v>
+        <v>2.5742626122030526E-2</v>
       </c>
       <c r="G5">
-        <v>0.53413404050015234</v>
-      </c>
-      <c r="H5">
-        <v>0.15502141760501612</v>
-      </c>
-      <c r="I5">
-        <v>0.12846757228595568</v>
-      </c>
-      <c r="J5">
-        <v>0.1289541361581801</v>
-      </c>
-      <c r="K5">
-        <v>0.65262243092839167</v>
-      </c>
-      <c r="L5">
-        <v>0.58999123566142297</v>
-      </c>
-      <c r="M5">
-        <v>0.58936880258428825</v>
+        <v>0.29026494699937516</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -3239,40 +4038,22 @@
         <v>59</v>
       </c>
       <c r="B6">
-        <v>0.13248915518347271</v>
+        <v>0.56559195470673451</v>
       </c>
       <c r="C6">
-        <v>0.11757537170839052</v>
+        <v>3.959428282163794E-2</v>
       </c>
       <c r="D6">
-        <v>0.11505945918379672</v>
+        <v>0.39481376247162758</v>
       </c>
       <c r="E6">
-        <v>0.70276691016205672</v>
+        <v>0.62130568766378724</v>
       </c>
       <c r="F6">
-        <v>0.65698220264576912</v>
+        <v>3.6773269921382121E-2</v>
       </c>
       <c r="G6">
-        <v>0.64919349968394902</v>
-      </c>
-      <c r="H6">
-        <v>0.1312432755167694</v>
-      </c>
-      <c r="I6">
-        <v>0.11359364686576434</v>
-      </c>
-      <c r="J6">
-        <v>0.11387635245733742</v>
-      </c>
-      <c r="K6">
-        <v>0.78386570644516107</v>
-      </c>
-      <c r="L6">
-        <v>0.70358488252718732</v>
-      </c>
-      <c r="M6">
-        <v>0.70324515504162566</v>
+        <v>0.34192104241483062</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -3280,40 +4061,22 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>0.10709085326742847</v>
+        <v>0.50796705520766605</v>
       </c>
       <c r="C7">
-        <v>9.6101766279055117E-2</v>
+        <v>5.608965937448071E-2</v>
       </c>
       <c r="D7">
-        <v>9.4491453203656262E-2</v>
+        <v>0.43594328541785321</v>
       </c>
       <c r="E7">
-        <v>0.80985776342948523</v>
+        <v>0.55369326756089476</v>
       </c>
       <c r="F7">
-        <v>0.75308396892482421</v>
+        <v>5.3727901994448594E-2</v>
       </c>
       <c r="G7">
-        <v>0.74368495288760528</v>
-      </c>
-      <c r="H7">
-        <v>9.5406061403850467E-2</v>
-      </c>
-      <c r="I7">
-        <v>9.0220625797192408E-2</v>
-      </c>
-      <c r="J7">
-        <v>9.0383886975587191E-2</v>
-      </c>
-      <c r="K7">
-        <v>0.87927176784901151</v>
-      </c>
-      <c r="L7">
-        <v>0.79380550832437968</v>
-      </c>
-      <c r="M7">
-        <v>0.79362904201721285</v>
+        <v>0.39257883044465663</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -3321,40 +4084,22 @@
         <v>61</v>
       </c>
       <c r="B8">
-        <v>7.4235695025823889E-2</v>
+        <v>0.41491897135829442</v>
       </c>
       <c r="C8">
-        <v>7.1564578560106812E-2</v>
+        <v>7.8842033297558262E-2</v>
       </c>
       <c r="D8">
-        <v>7.027497104543752E-2</v>
+        <v>0.50623899534414729</v>
       </c>
       <c r="E8">
-        <v>0.88409345845530907</v>
+        <v>0.46427740902416498</v>
       </c>
       <c r="F8">
-        <v>0.82464854748493099</v>
+        <v>7.4631080281980233E-2</v>
       </c>
       <c r="G8">
-        <v>0.81395992393304284</v>
-      </c>
-      <c r="H8">
-        <v>5.9451315748823674E-2</v>
-      </c>
-      <c r="I8">
-        <v>6.4219174073582699E-2</v>
-      </c>
-      <c r="J8">
-        <v>6.3528594569548652E-2</v>
-      </c>
-      <c r="K8">
-        <v>0.93872308359783518</v>
-      </c>
-      <c r="L8">
-        <v>0.85802468239796237</v>
-      </c>
-      <c r="M8">
-        <v>0.85715763658676147</v>
+        <v>0.46109151069385479</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -3362,40 +4107,22 @@
         <v>62</v>
       </c>
       <c r="B9">
-        <v>5.0409017537139889E-2</v>
+        <v>0.29462966045066236</v>
       </c>
       <c r="C9">
-        <v>5.3724192481218735E-2</v>
+        <v>8.839858605982169E-2</v>
       </c>
       <c r="D9">
-        <v>5.4025657164559884E-2</v>
+        <v>0.61697175348951594</v>
       </c>
       <c r="E9">
-        <v>0.93450247599244896</v>
+        <v>0.33761406179471976</v>
       </c>
       <c r="F9">
-        <v>0.87837273996614973</v>
+        <v>7.7880641135705878E-2</v>
       </c>
       <c r="G9">
-        <v>0.86798558109760271</v>
-      </c>
-      <c r="H9">
-        <v>3.3899286885763373E-2</v>
-      </c>
-      <c r="I9">
-        <v>4.4194058732583939E-2</v>
-      </c>
-      <c r="J9">
-        <v>4.4466932652905952E-2</v>
-      </c>
-      <c r="K9">
-        <v>0.97262237048359856</v>
-      </c>
-      <c r="L9">
-        <v>0.90221874113054634</v>
-      </c>
-      <c r="M9">
-        <v>0.90162456923966738</v>
+        <v>0.58450529706957433</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -3403,40 +4130,22 @@
         <v>63</v>
       </c>
       <c r="B10">
-        <v>2.8430594694171613E-2</v>
+        <v>0.23473045509304116</v>
       </c>
       <c r="C10">
-        <v>3.6150556311452628E-2</v>
+        <v>7.8603295768109968E-2</v>
       </c>
       <c r="D10">
-        <v>3.6428261800242376E-2</v>
+        <v>0.68666624913884888</v>
       </c>
       <c r="E10">
-        <v>0.9629330706866206</v>
+        <v>0.26077234703004154</v>
       </c>
       <c r="F10">
-        <v>0.91452329627760232</v>
+        <v>6.2851844057452519E-2</v>
       </c>
       <c r="G10">
-        <v>0.9044138428978451</v>
-      </c>
-      <c r="H10">
-        <v>1.4157345855703503E-2</v>
-      </c>
-      <c r="I10">
-        <v>2.8461311352910214E-2</v>
-      </c>
-      <c r="J10">
-        <v>2.8247041353558291E-2</v>
-      </c>
-      <c r="K10">
-        <v>0.98677971633930206</v>
-      </c>
-      <c r="L10">
-        <v>0.93068005248345653</v>
-      </c>
-      <c r="M10">
-        <v>0.92987161059322565</v>
+        <v>0.67637580891250593</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -3444,40 +4153,22 @@
         <v>64</v>
       </c>
       <c r="B11">
-        <v>1.8902051623454593E-2</v>
+        <v>0.17763207031695305</v>
       </c>
       <c r="C11">
-        <v>3.3023733847306364E-2</v>
+        <v>6.8103824427750981E-2</v>
       </c>
       <c r="D11">
-        <v>3.414034809892999E-2</v>
+        <v>0.75426410525529597</v>
       </c>
       <c r="E11">
-        <v>0.98183512231007519</v>
+        <v>0.18604215861314288</v>
       </c>
       <c r="F11">
-        <v>0.94754703012490871</v>
+        <v>4.6650924379427521E-2</v>
       </c>
       <c r="G11">
-        <v>0.93855419099677506</v>
-      </c>
-      <c r="H11">
-        <v>7.2681505639499199E-3</v>
-      </c>
-      <c r="I11">
-        <v>2.6397042052664802E-2</v>
-      </c>
-      <c r="J11">
-        <v>2.6027706476899806E-2</v>
-      </c>
-      <c r="K11">
-        <v>0.99404786690325198</v>
-      </c>
-      <c r="L11">
-        <v>0.95707709453612133</v>
-      </c>
-      <c r="M11">
-        <v>0.95589931707012543</v>
+        <v>0.76730691700742959</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -3485,40 +4176,22 @@
         <v>65</v>
       </c>
       <c r="B12">
-        <v>1.0815937548448286E-2</v>
+        <v>0.13206465611172696</v>
       </c>
       <c r="C12">
-        <v>2.5915871072779217E-2</v>
+        <v>5.7583165155434275E-2</v>
       </c>
       <c r="D12">
-        <v>2.8328633948570256E-2</v>
+        <v>0.81035217873283871</v>
       </c>
       <c r="E12">
-        <v>0.99265105985852353</v>
+        <v>0.13282633225389195</v>
       </c>
       <c r="F12">
-        <v>0.97346290119768797</v>
+        <v>3.7685653214931149E-2</v>
       </c>
       <c r="G12">
-        <v>0.96688282494534528</v>
-      </c>
-      <c r="H12">
-        <v>5.3189738891926052E-3</v>
-      </c>
-      <c r="I12">
-        <v>2.3767643710912108E-2</v>
-      </c>
-      <c r="J12">
-        <v>2.0549063712789233E-2</v>
-      </c>
-      <c r="K12">
-        <v>0.99936684079244453</v>
-      </c>
-      <c r="L12">
-        <v>0.98084473824703344</v>
-      </c>
-      <c r="M12">
-        <v>0.97644838078291463</v>
+        <v>0.82948801453117693</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -3526,40 +4199,22 @@
         <v>66</v>
       </c>
       <c r="B13">
-        <v>5.9429898558786961E-3</v>
+        <v>8.8603844115585598E-2</v>
       </c>
       <c r="C13">
-        <v>1.9797978549218092E-2</v>
+        <v>3.9164847939187071E-2</v>
       </c>
       <c r="D13">
-        <v>2.3551365997748052E-2</v>
+        <v>0.8722313079452273</v>
       </c>
       <c r="E13">
-        <v>0.99859404971440224</v>
+        <v>8.7638398539760312E-2</v>
       </c>
       <c r="F13">
-        <v>0.99326087974690602</v>
+        <v>2.1795518409107286E-2</v>
       </c>
       <c r="G13">
-        <v>0.99043419094309337</v>
-      </c>
-      <c r="H13">
-        <v>4.778496697699471E-4</v>
-      </c>
-      <c r="I13">
-        <v>1.2813913941491532E-2</v>
-      </c>
-      <c r="J13">
-        <v>1.4757724234977012E-2</v>
-      </c>
-      <c r="K13">
-        <v>0.99984469046221447</v>
-      </c>
-      <c r="L13">
-        <v>0.993658652188525</v>
-      </c>
-      <c r="M13">
-        <v>0.99120610501789164</v>
+        <v>0.89056608305113238</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -3567,1485 +4222,22 @@
         <v>67</v>
       </c>
       <c r="B14">
-        <v>1.4059502855979012E-3</v>
+        <v>7.0667646675722451E-2</v>
       </c>
       <c r="C14">
-        <v>6.7391202530938353E-3</v>
+        <v>4.7582385887869595E-2</v>
       </c>
       <c r="D14">
-        <v>9.5658090569066198E-3</v>
+        <v>0.88174996743640799</v>
       </c>
       <c r="E14">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="F14">
-        <v>0.99999999999999989</v>
+        <v>6.4581272667326078E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.8437190900098913E-2</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1.5530953778538338E-4</v>
-      </c>
-      <c r="I14">
-        <v>6.3413478114748871E-3</v>
-      </c>
-      <c r="J14">
-        <v>8.7938949821081969E-3</v>
-      </c>
-      <c r="K14">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="L14">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="M14">
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3">
-        <v>981250</v>
-      </c>
-      <c r="C3">
-        <v>6874</v>
-      </c>
-      <c r="D3">
-        <v>154711</v>
-      </c>
-      <c r="E3">
-        <v>569609</v>
-      </c>
-      <c r="F3">
-        <v>3224</v>
-      </c>
-      <c r="G3">
-        <v>73874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4">
-        <v>724363</v>
-      </c>
-      <c r="C4">
-        <v>25266</v>
-      </c>
-      <c r="D4">
-        <v>188159</v>
-      </c>
-      <c r="E4">
-        <v>440886</v>
-      </c>
-      <c r="F4">
-        <v>12051</v>
-      </c>
-      <c r="G4">
-        <v>88552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>635108</v>
-      </c>
-      <c r="C5">
-        <v>35161</v>
-      </c>
-      <c r="D5">
-        <v>294796</v>
-      </c>
-      <c r="E5">
-        <v>397899</v>
-      </c>
-      <c r="F5">
-        <v>13659</v>
-      </c>
-      <c r="G5">
-        <v>134467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6">
-        <v>578548</v>
-      </c>
-      <c r="C6">
-        <v>27175</v>
-      </c>
-      <c r="D6">
-        <v>328301</v>
-      </c>
-      <c r="E6">
-        <v>365609</v>
-      </c>
-      <c r="F6">
-        <v>13760</v>
-      </c>
-      <c r="G6">
-        <v>155153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7">
-        <v>484908</v>
-      </c>
-      <c r="C7">
-        <v>33946</v>
-      </c>
-      <c r="D7">
-        <v>338492</v>
-      </c>
-      <c r="E7">
-        <v>307263</v>
-      </c>
-      <c r="F7">
-        <v>18186</v>
-      </c>
-      <c r="G7">
-        <v>169095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8">
-        <v>357653</v>
-      </c>
-      <c r="C8">
-        <v>39492</v>
-      </c>
-      <c r="D8">
-        <v>306942</v>
-      </c>
-      <c r="E8">
-        <v>223815</v>
-      </c>
-      <c r="F8">
-        <v>21718</v>
-      </c>
-      <c r="G8">
-        <v>158689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9">
-        <v>217269</v>
-      </c>
-      <c r="C9">
-        <v>41285</v>
-      </c>
-      <c r="D9">
-        <v>265088</v>
-      </c>
-      <c r="E9">
-        <v>139754</v>
-      </c>
-      <c r="F9">
-        <v>22465</v>
-      </c>
-      <c r="G9">
-        <v>138795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10">
-        <v>118607</v>
-      </c>
-      <c r="C10">
-        <v>35586</v>
-      </c>
-      <c r="D10">
-        <v>248370</v>
-      </c>
-      <c r="E10">
-        <v>76292</v>
-      </c>
-      <c r="F10">
-        <v>17599</v>
-      </c>
-      <c r="G10">
-        <v>132083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11">
-        <v>63715</v>
-      </c>
-      <c r="C11">
-        <v>21336</v>
-      </c>
-      <c r="D11">
-        <v>186388</v>
-      </c>
-      <c r="E11">
-        <v>39652</v>
-      </c>
-      <c r="F11">
-        <v>9557</v>
-      </c>
-      <c r="G11">
-        <v>102847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12">
-        <v>45188</v>
-      </c>
-      <c r="C12">
-        <v>17325</v>
-      </c>
-      <c r="D12">
-        <v>191878</v>
-      </c>
-      <c r="E12">
-        <v>25842</v>
-      </c>
-      <c r="F12">
-        <v>6480</v>
-      </c>
-      <c r="G12">
-        <v>106582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13">
-        <v>27877</v>
-      </c>
-      <c r="C13">
-        <v>12155</v>
-      </c>
-      <c r="D13">
-        <v>171054</v>
-      </c>
-      <c r="E13">
-        <v>14479</v>
-      </c>
-      <c r="F13">
-        <v>4108</v>
-      </c>
-      <c r="G13">
-        <v>90420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14">
-        <v>15549</v>
-      </c>
-      <c r="C14">
-        <v>6873</v>
-      </c>
-      <c r="D14">
-        <v>153067</v>
-      </c>
-      <c r="E14">
-        <v>7298</v>
-      </c>
-      <c r="F14">
-        <v>1815</v>
-      </c>
-      <c r="G14">
-        <v>74161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15">
-        <v>30382</v>
-      </c>
-      <c r="C15">
-        <v>20457</v>
-      </c>
-      <c r="D15">
-        <v>379089</v>
-      </c>
-      <c r="E15">
-        <v>10969</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4830</v>
-      </c>
-      <c r="G15">
-        <v>154049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ref="B16:D16" si="0">SUM(B3:B15)</f>
-        <v>4280417</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>322931</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>3206335</v>
-      </c>
-      <c r="E16">
-        <f>SUM(E3:E15)</f>
-        <v>2619367</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" ref="F16:G16" si="1">SUM(F3:F15)</f>
-        <v>149452</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>1578767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="6">
-        <f>B16/SUM($B16:$D16)</f>
-        <v>0.54809100446202486</v>
-      </c>
-      <c r="C17" s="6">
-        <f t="shared" ref="C17:D17" si="2">C16/SUM($B16:$D16)</f>
-        <v>4.1350077845669277E-2</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="2"/>
-        <v>0.41055891769230585</v>
-      </c>
-      <c r="E17" s="6">
-        <f>E16/SUM($E16:$G16)</f>
-        <v>0.60248767936965475</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" ref="F17:G17" si="3">F16/SUM($E16:$G16)</f>
-        <v>3.4375858234891733E-2</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="3"/>
-        <v>0.3631364623954535</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.23285924688399903</v>
-      </c>
-      <c r="C2">
-        <v>0.31596054626331188</v>
-      </c>
-      <c r="D2">
-        <v>0.29004485179407175</v>
-      </c>
-      <c r="E2">
-        <v>0.23285924688399903</v>
-      </c>
-      <c r="F2">
-        <v>0.31596054626331188</v>
-      </c>
-      <c r="G2">
-        <v>0.29004485179407175</v>
-      </c>
-      <c r="H2">
-        <v>5.8435668936525534E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.18639508536393268</v>
-      </c>
-      <c r="J2">
-        <v>0.15298103618653239</v>
-      </c>
-      <c r="K2">
-        <v>5.8435668936525534E-2</v>
-      </c>
-      <c r="L2">
-        <v>0.18639508536393268</v>
-      </c>
-      <c r="M2">
-        <v>0.15298103618653239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.17363874172913324</v>
-      </c>
-      <c r="C3">
-        <v>0.23958599779148912</v>
-      </c>
-      <c r="D3">
-        <v>0.21897425897035883</v>
-      </c>
-      <c r="E3">
-        <v>0.40649798861313224</v>
-      </c>
-      <c r="F3">
-        <v>0.55554654405480097</v>
-      </c>
-      <c r="G3">
-        <v>0.50901911076443063</v>
-      </c>
-      <c r="H3">
-        <v>6.5101279854882593E-2</v>
-      </c>
-      <c r="I3">
-        <v>0.2787262659186468</v>
-      </c>
-      <c r="J3">
-        <v>0.23363606418521482</v>
-      </c>
-      <c r="K3">
-        <v>0.12353694879140813</v>
-      </c>
-      <c r="L3">
-        <v>0.46512135128257948</v>
-      </c>
-      <c r="M3">
-        <v>0.38661710037174724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.12484887120529335</v>
-      </c>
-      <c r="C4">
-        <v>0.15369114536867784</v>
-      </c>
-      <c r="D4">
-        <v>0.14452028081123244</v>
-      </c>
-      <c r="E4">
-        <v>0.53134685981842567</v>
-      </c>
-      <c r="F4">
-        <v>0.70923768942347887</v>
-      </c>
-      <c r="G4">
-        <v>0.65353939157566299</v>
-      </c>
-      <c r="H4">
-        <v>7.3768013705532598E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.20226829356953313</v>
-      </c>
-      <c r="J4">
-        <v>0.198280865214186</v>
-      </c>
-      <c r="K4">
-        <v>0.19730496249694074</v>
-      </c>
-      <c r="L4">
-        <v>0.66738964485211261</v>
-      </c>
-      <c r="M4">
-        <v>0.58489796558593321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8.3576971269042233E-2</v>
-      </c>
-      <c r="C5">
-        <v>9.628857875462446E-2</v>
-      </c>
-      <c r="D5">
-        <v>9.4807917316692664E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.61492383108746784</v>
-      </c>
-      <c r="F5">
-        <v>0.80552626817810336</v>
-      </c>
-      <c r="G5">
-        <v>0.74834730889235568</v>
-      </c>
-      <c r="H5">
-        <v>8.5270871424252465E-2</v>
-      </c>
-      <c r="I5">
-        <v>0.10860424820366174</v>
-      </c>
-      <c r="J5">
-        <v>0.11640236537888413</v>
-      </c>
-      <c r="K5">
-        <v>0.28257583392119318</v>
-      </c>
-      <c r="L5">
-        <v>0.77599389305577438</v>
-      </c>
-      <c r="M5">
-        <v>0.70130033096481736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5.4516277945088037E-2</v>
-      </c>
-      <c r="C6">
-        <v>5.9536212715782119E-2</v>
-      </c>
-      <c r="D6">
-        <v>5.9494442277691108E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.66944010903255591</v>
-      </c>
-      <c r="F6">
-        <v>0.86506248089388538</v>
-      </c>
-      <c r="G6">
-        <v>0.80784175117004675</v>
-      </c>
-      <c r="H6">
-        <v>0.10410158218280761</v>
-      </c>
-      <c r="I6">
-        <v>6.3589768445031447E-2</v>
-      </c>
-      <c r="J6">
-        <v>7.0200618010132859E-2</v>
-      </c>
-      <c r="K6">
-        <v>0.3866774161040008</v>
-      </c>
-      <c r="L6">
-        <v>0.83958366150080577</v>
-      </c>
-      <c r="M6">
-        <v>0.77150094897495025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3.9172583587962453E-2</v>
-      </c>
-      <c r="C7">
-        <v>3.7310732489440945E-2</v>
-      </c>
-      <c r="D7">
-        <v>4.0135042901716066E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.70861269262051829</v>
-      </c>
-      <c r="F7">
-        <v>0.90237321338332632</v>
-      </c>
-      <c r="G7">
-        <v>0.84797679407176285</v>
-      </c>
-      <c r="H7">
-        <v>0.11102633132261269</v>
-      </c>
-      <c r="I7">
-        <v>4.0337335966751084E-2</v>
-      </c>
-      <c r="J7">
-        <v>4.7331105987169234E-2</v>
-      </c>
-      <c r="K7">
-        <v>0.4977037474266135</v>
-      </c>
-      <c r="L7">
-        <v>0.87992099746755681</v>
-      </c>
-      <c r="M7">
-        <v>0.81883205496211942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2.833527510936229E-2</v>
-      </c>
-      <c r="C8">
-        <v>2.3825714802637735E-2</v>
-      </c>
-      <c r="D8">
-        <v>2.8858716848673947E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.73694796772988058</v>
-      </c>
-      <c r="F8">
-        <v>0.92619892818596405</v>
-      </c>
-      <c r="G8">
-        <v>0.87683551092043677</v>
-      </c>
-      <c r="H8">
-        <v>0.10948589856178287</v>
-      </c>
-      <c r="I8">
-        <v>2.7045038713664288E-2</v>
-      </c>
-      <c r="J8">
-        <v>3.3959186234373287E-2</v>
-      </c>
-      <c r="K8">
-        <v>0.60718964598839642</v>
-      </c>
-      <c r="L8">
-        <v>0.90696603618122118</v>
-      </c>
-      <c r="M8">
-        <v>0.85279124119649274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2.4158624782924094E-2</v>
-      </c>
-      <c r="C9">
-        <v>1.6492086169356601E-2</v>
-      </c>
-      <c r="D9">
-        <v>2.2057819812792513E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.76110659251280477</v>
-      </c>
-      <c r="F9">
-        <v>0.94269101435532066</v>
-      </c>
-      <c r="G9">
-        <v>0.8988933307332293</v>
-      </c>
-      <c r="H9">
-        <v>0.1074703790616317</v>
-      </c>
-      <c r="I9">
-        <v>1.8720692120345574E-2</v>
-      </c>
-      <c r="J9">
-        <v>2.6320330023685161E-2</v>
-      </c>
-      <c r="K9">
-        <v>0.71466002505002812</v>
-      </c>
-      <c r="L9">
-        <v>0.92568672830156673</v>
-      </c>
-      <c r="M9">
-        <v>0.87911157122017791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2.3246356422149436E-2</v>
-      </c>
-      <c r="C10">
-        <v>1.1844231357111218E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.6999804992199687E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.78435294893495422</v>
-      </c>
-      <c r="F10">
-        <v>0.95453524571243187</v>
-      </c>
-      <c r="G10">
-        <v>0.91589313572542896</v>
-      </c>
-      <c r="H10">
-        <v>9.5938728207195401E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.4407056913327436E-2</v>
-      </c>
-      <c r="J10">
-        <v>2.0085329317836024E-2</v>
-      </c>
-      <c r="K10">
-        <v>0.81059875325722353</v>
-      </c>
-      <c r="L10">
-        <v>0.94009378521489417</v>
-      </c>
-      <c r="M10">
-        <v>0.89919690053801393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2.521377854960322E-2</v>
-      </c>
-      <c r="C11">
-        <v>9.3955293251564362E-3</v>
-      </c>
-      <c r="D11">
-        <v>1.4430577223088924E-2</v>
-      </c>
-      <c r="E11">
-        <v>0.80956672748455738</v>
-      </c>
-      <c r="F11">
-        <v>0.96393077503758839</v>
-      </c>
-      <c r="G11">
-        <v>0.9303237129485179</v>
-      </c>
-      <c r="H11">
-        <v>7.7899828680842484E-2</v>
-      </c>
-      <c r="I11">
-        <v>1.1062777932605508E-2</v>
-      </c>
-      <c r="J11">
-        <v>1.6085517544272426E-2</v>
-      </c>
-      <c r="K11">
-        <v>0.88849858193806597</v>
-      </c>
-      <c r="L11">
-        <v>0.95115656314749963</v>
-      </c>
-      <c r="M11">
-        <v>0.91528241808228628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2.6972368160735092E-2</v>
-      </c>
-      <c r="C12">
-        <v>6.8126945704321566E-3</v>
-      </c>
-      <c r="D12">
-        <v>1.2426872074882996E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.8365390956452925</v>
-      </c>
-      <c r="F12">
-        <v>0.97074346960802049</v>
-      </c>
-      <c r="G12">
-        <v>0.94275058502340092</v>
-      </c>
-      <c r="H12">
-        <v>5.388635349332719E-2</v>
-      </c>
-      <c r="I12">
-        <v>8.2031770650316856E-3</v>
-      </c>
-      <c r="J12">
-        <v>1.3324863143695199E-2</v>
-      </c>
-      <c r="K12">
-        <v>0.94238493543139312</v>
-      </c>
-      <c r="L12">
-        <v>0.95935974021253134</v>
-      </c>
-      <c r="M12">
-        <v>0.92860728122598157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2.7423006748587633E-2</v>
-      </c>
-      <c r="C13">
-        <v>5.3653089107799038E-3</v>
-      </c>
-      <c r="D13">
-        <v>1.0393915756630265E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.86396210239388016</v>
-      </c>
-      <c r="F13">
-        <v>0.9761087785188004</v>
-      </c>
-      <c r="G13">
-        <v>0.95314450078003121</v>
-      </c>
-      <c r="H13">
-        <v>3.132693165949238E-2</v>
-      </c>
-      <c r="I13">
-        <v>6.8581953010456928E-3</v>
-      </c>
-      <c r="J13">
-        <v>1.192100763885621E-2</v>
-      </c>
-      <c r="K13">
-        <v>0.97371186709088553</v>
-      </c>
-      <c r="L13">
-        <v>0.96621793551357704</v>
-      </c>
-      <c r="M13">
-        <v>0.94052828886483775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2.7269130157613595E-2</v>
-      </c>
-      <c r="C14">
-        <v>4.6665710061201951E-3</v>
-      </c>
-      <c r="D14">
-        <v>9.3554992199687981E-3</v>
-      </c>
-      <c r="E14">
-        <v>0.89123123255149372</v>
-      </c>
-      <c r="F14">
-        <v>0.98077534952492063</v>
-      </c>
-      <c r="G14">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="H14">
-        <v>1.556268985473863E-2</v>
-      </c>
-      <c r="I14">
-        <v>5.937306886064293E-3</v>
-      </c>
-      <c r="J14">
-        <v>1.0077957115743573E-2</v>
-      </c>
-      <c r="K14">
-        <v>0.98927455694562416</v>
-      </c>
-      <c r="L14">
-        <v>0.97215524239964135</v>
-      </c>
-      <c r="M14">
-        <v>0.9506062459805813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2.5477566991272998E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.5560768362145872E-3</v>
-      </c>
-      <c r="D15">
-        <v>7.6638065522620907E-3</v>
-      </c>
-      <c r="E15">
-        <v>0.91670879954276674</v>
-      </c>
-      <c r="F15">
-        <v>0.98433142636113524</v>
-      </c>
-      <c r="G15">
-        <v>0.97016380655226209</v>
-      </c>
-      <c r="H15">
-        <v>5.715437439714372E-3</v>
-      </c>
-      <c r="I15">
-        <v>4.5802081692495975E-3</v>
-      </c>
-      <c r="J15">
-        <v>9.0897683246278609E-3</v>
-      </c>
-      <c r="K15">
-        <v>0.99498999438533853</v>
-      </c>
-      <c r="L15">
-        <v>0.97673545056889088</v>
-      </c>
-      <c r="M15">
-        <v>0.95969601430520912</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2.2092281989844146E-2</v>
-      </c>
-      <c r="C16">
-        <v>2.8635776628464834E-3</v>
-      </c>
-      <c r="D16">
-        <v>6.5132605304212172E-3</v>
-      </c>
-      <c r="E16">
-        <v>0.93880108153261088</v>
-      </c>
-      <c r="F16">
-        <v>0.98719500402398164</v>
-      </c>
-      <c r="G16">
-        <v>0.97667706708268331</v>
-      </c>
-      <c r="H16">
-        <v>2.1162954751587221E-3</v>
-      </c>
-      <c r="I16">
-        <v>3.7320214712404124E-3</v>
-      </c>
-      <c r="J16">
-        <v>7.6310134425046664E-3</v>
-      </c>
-      <c r="K16">
-        <v>0.99710628986049721</v>
-      </c>
-      <c r="L16">
-        <v>0.98046747204013129</v>
-      </c>
-      <c r="M16">
-        <v>0.96732702774771384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1.8168428920006155E-2</v>
-      </c>
-      <c r="C17">
-        <v>2.523566807454036E-3</v>
-      </c>
-      <c r="D17">
-        <v>5.1701443057722311E-3</v>
-      </c>
-      <c r="E17">
-        <v>0.95696951045261702</v>
-      </c>
-      <c r="F17">
-        <v>0.98971857083143577</v>
-      </c>
-      <c r="G17">
-        <v>0.98184721138845554</v>
-      </c>
-      <c r="H17">
-        <v>6.1905241790357181E-4</v>
-      </c>
-      <c r="I17">
-        <v>3.5502671788098729E-3</v>
-      </c>
-      <c r="J17">
-        <v>6.7290951014069922E-3</v>
-      </c>
-      <c r="K17">
-        <v>0.99772534227840082</v>
-      </c>
-      <c r="L17">
-        <v>0.9840177392189412</v>
-      </c>
-      <c r="M17">
-        <v>0.9740561228491208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1.3409245784880525E-2</v>
-      </c>
-      <c r="C18">
-        <v>2.1367654673745545E-3</v>
-      </c>
-      <c r="D18">
-        <v>4.2194812792511697E-3</v>
-      </c>
-      <c r="E18">
-        <v>0.97037875623749748</v>
-      </c>
-      <c r="F18">
-        <v>0.99185533629881029</v>
-      </c>
-      <c r="G18">
-        <v>0.98606669266770675</v>
-      </c>
-      <c r="H18">
-        <v>5.1827644289601362E-4</v>
-      </c>
-      <c r="I18">
-        <v>3.1746416411200912E-3</v>
-      </c>
-      <c r="J18">
-        <v>4.9174156510281867E-3</v>
-      </c>
-      <c r="K18">
-        <v>0.99824361872129685</v>
-      </c>
-      <c r="L18">
-        <v>0.98719238086006134</v>
-      </c>
-      <c r="M18">
-        <v>0.97897353850014901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>9.1996219032336058E-3</v>
-      </c>
-      <c r="C19">
-        <v>1.7842771493988983E-3</v>
-      </c>
-      <c r="D19">
-        <v>3.2688182527301091E-3</v>
-      </c>
-      <c r="E19">
-        <v>0.97957837814073112</v>
-      </c>
-      <c r="F19">
-        <v>0.99363961344820917</v>
-      </c>
-      <c r="G19">
-        <v>0.98933551092043681</v>
-      </c>
-      <c r="H19">
-        <v>4.0310390003023278E-4</v>
-      </c>
-      <c r="I19">
-        <v>2.5203261883701487E-3</v>
-      </c>
-      <c r="J19">
-        <v>4.4546923282041632E-3</v>
-      </c>
-      <c r="K19">
-        <v>0.99864672262132703</v>
-      </c>
-      <c r="L19">
-        <v>0.98971270704843151</v>
-      </c>
-      <c r="M19">
-        <v>0.98342823082835318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>6.4298432657009076E-3</v>
-      </c>
-      <c r="C20">
-        <v>1.6626218892126098E-3</v>
-      </c>
-      <c r="D20">
-        <v>2.7130460218408735E-3</v>
-      </c>
-      <c r="E20">
-        <v>0.98600822140643207</v>
-      </c>
-      <c r="F20">
-        <v>0.99530223533742179</v>
-      </c>
-      <c r="G20">
-        <v>0.99204855694227767</v>
-      </c>
-      <c r="H20">
-        <v>3.3112106073911982E-4</v>
-      </c>
-      <c r="I20">
-        <v>2.0841158865368536E-3</v>
-      </c>
-      <c r="J20">
-        <v>3.8978557871786426E-3</v>
-      </c>
-      <c r="K20">
-        <v>0.99897784368206621</v>
-      </c>
-      <c r="L20">
-        <v>0.99179682293496829</v>
-      </c>
-      <c r="M20">
-        <v>0.98732608661553178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>5.1988305379085976E-3</v>
-      </c>
-      <c r="C21">
-        <v>1.1510459233010375E-3</v>
-      </c>
-      <c r="D21">
-        <v>2.2523400936037444E-3</v>
-      </c>
-      <c r="E21">
-        <v>0.99120705194434067</v>
-      </c>
-      <c r="F21">
-        <v>0.99645328126072286</v>
-      </c>
-      <c r="G21">
-        <v>0.99430089703588143</v>
-      </c>
-      <c r="H21">
-        <v>3.0232792502267458E-4</v>
-      </c>
-      <c r="I21">
-        <v>2.1931684619951775E-3</v>
-      </c>
-      <c r="J21">
-        <v>3.4272896961711607E-3</v>
-      </c>
-      <c r="K21">
-        <v>0.99928017160708882</v>
-      </c>
-      <c r="L21">
-        <v>0.99398999139696353</v>
-      </c>
-      <c r="M21">
-        <v>0.99075337631170302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>3.6820469983073574E-3</v>
-      </c>
-      <c r="C22">
-        <v>1.1042554386140034E-3</v>
-      </c>
-      <c r="D22">
-        <v>1.7916341653666146E-3</v>
-      </c>
-      <c r="E22">
-        <v>0.99488909894264799</v>
-      </c>
-      <c r="F22">
-        <v>0.99755753669933678</v>
-      </c>
-      <c r="G22">
-        <v>0.99609253120124808</v>
-      </c>
-      <c r="H22">
-        <v>2.735347893062294E-4</v>
-      </c>
-      <c r="I22">
-        <v>1.7569581601618825E-3</v>
-      </c>
-      <c r="J22">
-        <v>2.6508556460088152E-3</v>
-      </c>
-      <c r="K22">
-        <v>0.99955370639639507</v>
-      </c>
-      <c r="L22">
-        <v>0.99574694955712539</v>
-      </c>
-      <c r="M22">
-        <v>0.99340423195771177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>2.3081488646105822E-3</v>
-      </c>
-      <c r="C23">
-        <v>1.0200325661773421E-3</v>
-      </c>
-      <c r="D23">
-        <v>1.4796216848673948E-3</v>
-      </c>
-      <c r="E23">
-        <v>0.9971972478072586</v>
-      </c>
-      <c r="F23">
-        <v>0.99857756926551422</v>
-      </c>
-      <c r="G23">
-        <v>0.99757215288611545</v>
-      </c>
-      <c r="H23">
-        <v>1.5836224644044859E-4</v>
-      </c>
-      <c r="I23">
-        <v>1.7448412073331799E-3</v>
-      </c>
-      <c r="J23">
-        <v>2.376358759587784E-3</v>
-      </c>
-      <c r="K23">
-        <v>0.99971206864283557</v>
-      </c>
-      <c r="L23">
-        <v>0.9974917907644586</v>
-      </c>
-      <c r="M23">
-        <v>0.99578059071729963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>1.8465190916884659E-3</v>
-      </c>
-      <c r="C24">
-        <v>7.392896580551379E-4</v>
-      </c>
-      <c r="D24">
-        <v>1.3650546021840874E-3</v>
-      </c>
-      <c r="E24">
-        <v>0.99904376689894703</v>
-      </c>
-      <c r="F24">
-        <v>0.99931685892356925</v>
-      </c>
-      <c r="G24">
-        <v>0.99893720748829951</v>
-      </c>
-      <c r="H24">
-        <v>1.0077597500755819E-4</v>
-      </c>
-      <c r="I24">
-        <v>1.3328648111572902E-3</v>
-      </c>
-      <c r="J24">
-        <v>2.1881323231847912E-3</v>
-      </c>
-      <c r="K24">
-        <v>0.99981284461784314</v>
-      </c>
-      <c r="L24">
-        <v>0.99882465557561584</v>
-      </c>
-      <c r="M24">
-        <v>0.99796872304048434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>9.5623310105295552E-4</v>
-      </c>
-      <c r="C25">
-        <v>6.8314107643069701E-4</v>
-      </c>
-      <c r="D25">
-        <v>1.0627925117004679E-3</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1.871553821568938E-4</v>
-      </c>
-      <c r="I25">
-        <v>1.1753444243841559E-3</v>
-      </c>
-      <c r="J25">
-        <v>2.0312769595156308E-3</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
+        <v>0.90698153643257495</v>
       </c>
     </row>
   </sheetData>

--- a/data_visualization/f12/data/mile.xlsx
+++ b/data_visualization/f12/data/mile.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA923D62-DBE3-44BC-9F41-611D0CA9D980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consumption" sheetId="4" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="velocity" sheetId="7" r:id="rId3"/>
     <sheet name="drive_mode" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -295,11 +296,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.000"/>
-    <numFmt numFmtId="185" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -373,8 +374,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -655,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,10 +679,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>0.63433328928241051</v>
+        <v>6.3433328928241047E-3</v>
       </c>
       <c r="C2">
-        <v>0.53238686779059452</v>
+        <v>5.3238686779059448E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,10 +690,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>1.3083124091449716</v>
+        <v>1.3083124091449716E-2</v>
       </c>
       <c r="C3">
-        <v>0.71700489452442973</v>
+        <v>7.1700489452442969E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,10 +701,10 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>1.5990485000660766</v>
+        <v>1.5990485000660765E-2</v>
       </c>
       <c r="C4">
-        <v>1.3395540544408506</v>
+        <v>1.3395540544408507E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -711,10 +712,10 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>2.7223470331703448</v>
+        <v>2.7223470331703449E-2</v>
       </c>
       <c r="C5">
-        <v>2.1681884535020179</v>
+        <v>2.1681884535020179E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -722,10 +723,10 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>3.8192150125545132</v>
+        <v>3.8192150125545131E-2</v>
       </c>
       <c r="C6">
-        <v>3.424735953287346</v>
+        <v>3.4247359532873459E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -733,10 +734,10 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>5.5636315580811422</v>
+        <v>5.5636315580811418E-2</v>
       </c>
       <c r="C7">
-        <v>5.0791424564215584</v>
+        <v>5.0791424564215586E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -744,10 +745,10 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>6.9115897978062639</v>
+        <v>6.911589797806264E-2</v>
       </c>
       <c r="C8">
-        <v>6.8652145290093598</v>
+        <v>6.86521452900936E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -755,10 +756,10 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>8.5106382978723403</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="C9">
-        <v>7.9528866244955196</v>
+        <v>7.9528866244955199E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,10 +767,10 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>8.8410202193735969</v>
+        <v>8.8410202193735965E-2</v>
       </c>
       <c r="C10">
-        <v>8.9475341328677338</v>
+        <v>8.9475341328677335E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -777,10 +778,10 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>8.9335271573939465</v>
+        <v>8.9335271573939459E-2</v>
       </c>
       <c r="C11">
-        <v>9.2537996965967313</v>
+        <v>9.2537996965967317E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,10 +789,10 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>8.761728558213294</v>
+        <v>8.7617285582132942E-2</v>
       </c>
       <c r="C12">
-        <v>8.8015570884735386</v>
+        <v>8.8015570884735383E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -799,10 +800,10 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>7.5723536408087755</v>
+        <v>7.5723536408087752E-2</v>
       </c>
       <c r="C13">
-        <v>8.2147866159086362</v>
+        <v>8.2147866159086355E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -810,10 +811,10 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>6.1318884630633015</v>
+        <v>6.1318884630633015E-2</v>
       </c>
       <c r="C14">
-        <v>6.9725505910639152</v>
+        <v>6.9725505910639154E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -821,10 +822,10 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>5.8940134795823971</v>
+        <v>5.8940134795823967E-2</v>
       </c>
       <c r="C15">
-        <v>6.0222686550075855</v>
+        <v>6.022268655007585E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -832,10 +833,10 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>4.9160829919386817</v>
+        <v>4.916082991938682E-2</v>
       </c>
       <c r="C16">
-        <v>5.014740819188825</v>
+        <v>5.0147408191888253E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -843,10 +844,10 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>3.872076119994714</v>
+        <v>3.8720761199947142E-2</v>
       </c>
       <c r="C17">
-        <v>3.9843146234650941</v>
+        <v>3.984314623465094E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -854,10 +855,10 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>3.3434650455927049</v>
+        <v>3.3434650455927049E-2</v>
       </c>
       <c r="C18">
-        <v>3.1370753069811372</v>
+        <v>3.1370753069811373E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -865,10 +866,10 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>2.8677150786308974</v>
+        <v>2.8677150786308975E-2</v>
       </c>
       <c r="C19">
-        <v>2.3857228725992501</v>
+        <v>2.38572287259925E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -876,10 +877,10 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>2.43161094224924</v>
+        <v>2.4316109422492401E-2</v>
       </c>
       <c r="C20">
-        <v>1.6858917480035491</v>
+        <v>1.6858917480035492E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -887,10 +888,10 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>1.8897845909871813</v>
+        <v>1.8897845909871813E-2</v>
       </c>
       <c r="C21">
-        <v>1.3896442167329766</v>
+        <v>1.3896442167329765E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -898,10 +899,10 @@
         <v>44</v>
       </c>
       <c r="B22">
-        <v>1.4140346240253734</v>
+        <v>1.4140346240253733E-2</v>
       </c>
       <c r="C22">
-        <v>1.0475999656524602</v>
+        <v>1.0475999656524602E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -909,10 +910,10 @@
         <v>45</v>
       </c>
       <c r="B23">
-        <v>1.21580547112462</v>
+        <v>1.2158054711246201E-2</v>
       </c>
       <c r="C23">
-        <v>0.72559177948879405</v>
+        <v>7.2559177948879408E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,10 +921,10 @@
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.84577771904321397</v>
+        <v>8.4577771904321402E-3</v>
       </c>
       <c r="C24">
-        <v>0.56959670263617368</v>
+        <v>5.6959670263617371E-3</v>
       </c>
     </row>
   </sheetData>
@@ -934,11 +935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD25"/>
+      <selection activeCell="Q50" sqref="A26:Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1029,46 +1030,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.5445292620865138E-2</v>
+        <v>2.544529262086514E-4</v>
       </c>
       <c r="C2">
-        <v>5.9762407987755992E-2</v>
+        <v>5.9762407987755991E-4</v>
       </c>
       <c r="D2" s="5">
-        <v>39.945698286102157</v>
+        <v>0.39945698286102155</v>
       </c>
       <c r="E2">
-        <v>39.692601649952827</v>
+        <v>0.3969260164995283</v>
       </c>
       <c r="F2">
-        <v>37.102771875297321</v>
+        <v>0.37102771875297319</v>
       </c>
       <c r="G2">
-        <v>39.945698286102157</v>
+        <v>0.39945698286102155</v>
       </c>
       <c r="H2">
-        <v>39.692601649952827</v>
+        <v>0.3969260164995283</v>
       </c>
       <c r="I2">
-        <v>37.102771875297321</v>
+        <v>0.37102771875297319</v>
       </c>
       <c r="J2">
-        <v>7.4796747967479673</v>
+        <v>7.4796747967479676E-2</v>
       </c>
       <c r="K2">
-        <v>20.695828897706377</v>
+        <v>0.20695828897706378</v>
       </c>
       <c r="L2">
-        <v>16.638294487312066</v>
+        <v>0.16638294487312066</v>
       </c>
       <c r="M2">
-        <v>7.4796747967479673</v>
+        <v>7.4796747967479676E-2</v>
       </c>
       <c r="N2">
-        <v>20.695828897706377</v>
+        <v>0.20695828897706378</v>
       </c>
       <c r="O2">
-        <v>16.638294487312066</v>
+        <v>0.16638294487312066</v>
       </c>
       <c r="P2">
         <v>0.23285924688399903</v>
@@ -1112,46 +1113,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.3613231552162849E-2</v>
+        <v>6.3613231552162855E-4</v>
       </c>
       <c r="C3">
-        <v>1.311857736316595E-2</v>
+        <v>1.3118577363165949E-4</v>
       </c>
       <c r="D3" s="5">
-        <v>21.270999490921433</v>
+        <v>0.21270999490921433</v>
       </c>
       <c r="E3">
-        <v>23.91109722464234</v>
+        <v>0.23911097224642341</v>
       </c>
       <c r="F3">
-        <v>22.498493546034062</v>
+        <v>0.22498493546034062</v>
       </c>
       <c r="G3">
-        <v>61.21669777702359</v>
+        <v>0.61216697777023588</v>
       </c>
       <c r="H3">
-        <v>63.603698874595175</v>
+        <v>0.63603698874595171</v>
       </c>
       <c r="I3">
-        <v>59.601265421331384</v>
+        <v>0.59601265421331384</v>
       </c>
       <c r="J3">
-        <v>7.9299562226391496</v>
+        <v>7.9299562226391493E-2</v>
       </c>
       <c r="K3">
-        <v>28.379947740249683</v>
+        <v>0.28379947740249684</v>
       </c>
       <c r="L3">
-        <v>25.40927531620396</v>
+        <v>0.25409275316203961</v>
       </c>
       <c r="M3">
-        <v>15.409631019387119</v>
+        <v>0.15409631019387118</v>
       </c>
       <c r="N3">
-        <v>49.075776637956068</v>
+        <v>0.4907577663795607</v>
       </c>
       <c r="O3">
-        <v>42.047569803516026</v>
+        <v>0.42047569803516027</v>
       </c>
       <c r="P3">
         <v>0.17363874172913324</v>
@@ -1195,46 +1196,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.5445292620865138E-2</v>
+        <v>2.544529262086514E-4</v>
       </c>
       <c r="C4">
-        <v>2.62371547263319E-2</v>
+        <v>2.6237154726331898E-4</v>
       </c>
       <c r="D4" s="5">
-        <v>13.202104191413541</v>
+        <v>0.13202104191413541</v>
       </c>
       <c r="E4">
-        <v>13.942882550517039</v>
+        <v>0.13942882550517038</v>
       </c>
       <c r="F4">
-        <v>13.570771621578764</v>
+        <v>0.13570771621578764</v>
       </c>
       <c r="G4">
-        <v>74.418801968437137</v>
+        <v>0.74418801968437132</v>
       </c>
       <c r="H4">
-        <v>77.546581425112208</v>
+        <v>0.77546581425112204</v>
       </c>
       <c r="I4">
-        <v>73.172037042910148</v>
+        <v>0.73172037042910143</v>
       </c>
       <c r="J4">
-        <v>9.0556597873671034</v>
+        <v>9.0556597873671041E-2</v>
       </c>
       <c r="K4">
-        <v>19.56353430755831</v>
+        <v>0.19563534307558311</v>
       </c>
       <c r="L4">
-        <v>20.727070241030944</v>
+        <v>0.20727070241030943</v>
       </c>
       <c r="M4">
-        <v>24.465290806754222</v>
+        <v>0.24465290806754222</v>
       </c>
       <c r="N4">
-        <v>68.639310945514382</v>
+        <v>0.68639310945514387</v>
       </c>
       <c r="O4">
-        <v>62.77464004454697</v>
+        <v>0.6277464004454697</v>
       </c>
       <c r="P4">
         <v>0.12484887120529335</v>
@@ -1278,46 +1279,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.11450381679389314</v>
+        <v>1.1450381679389313E-3</v>
       </c>
       <c r="C5">
-        <v>1.0203337949129072E-2</v>
+        <v>1.0203337949129072E-4</v>
       </c>
       <c r="D5" s="5">
-        <v>8.0052604785338541</v>
+        <v>8.0052604785338544E-2</v>
       </c>
       <c r="E5">
-        <v>8.1097645242115259</v>
+        <v>8.1097645242115254E-2</v>
       </c>
       <c r="F5">
-        <v>8.3441692302813113</v>
+        <v>8.344169230281312E-2</v>
       </c>
       <c r="G5">
-        <v>82.424062446970979</v>
+        <v>0.8242406244697098</v>
       </c>
       <c r="H5">
-        <v>85.656345949323736</v>
+        <v>0.85656345949323731</v>
       </c>
       <c r="I5">
-        <v>81.516206273191457</v>
+        <v>0.81516206273191461</v>
       </c>
       <c r="J5">
-        <v>8.4803001876172601</v>
+        <v>8.4803001876172596E-2</v>
       </c>
       <c r="K5">
-        <v>10.761637472176522</v>
+        <v>0.10761637472176522</v>
       </c>
       <c r="L5">
-        <v>11.825630419218838</v>
+        <v>0.11825630419218838</v>
       </c>
       <c r="M5">
-        <v>32.945590994371479</v>
+        <v>0.32945590994371476</v>
       </c>
       <c r="N5">
-        <v>79.400948417690898</v>
+        <v>0.79400948417690898</v>
       </c>
       <c r="O5">
-        <v>74.60027046376581</v>
+        <v>0.74600270463765805</v>
       </c>
       <c r="P5">
         <v>8.3576971269042233E-2</v>
@@ -1361,46 +1362,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.10178117048346055</v>
+        <v>1.0178117048346056E-3</v>
       </c>
       <c r="C6">
-        <v>3.3525253261424096E-2</v>
+        <v>3.3525253261424098E-4</v>
       </c>
       <c r="D6" s="5">
-        <v>4.8192771084337354</v>
+        <v>4.8192771084337352E-2</v>
       </c>
       <c r="E6">
-        <v>4.6229923871440679</v>
+        <v>4.6229923871440676E-2</v>
       </c>
       <c r="F6">
-        <v>5.1901303479115795</v>
+        <v>5.1901303479115792E-2</v>
       </c>
       <c r="G6">
-        <v>87.243339555404717</v>
+        <v>0.8724333955540472</v>
       </c>
       <c r="H6">
-        <v>90.279338336467802</v>
+        <v>0.90279338336467807</v>
       </c>
       <c r="I6">
-        <v>86.706336621103048</v>
+        <v>0.86706336621103053</v>
       </c>
       <c r="J6">
-        <v>10.231394621638525</v>
+        <v>0.10231394621638526</v>
       </c>
       <c r="K6">
-        <v>6.0292267492499763</v>
+        <v>6.029226749249976E-2</v>
       </c>
       <c r="L6">
-        <v>7.057513324317874</v>
+        <v>7.0575133243178739E-2</v>
       </c>
       <c r="M6">
-        <v>43.176985616010008</v>
+        <v>0.43176985616010005</v>
       </c>
       <c r="N6">
-        <v>85.43017516694087</v>
+        <v>0.85430175166940869</v>
       </c>
       <c r="O6">
-        <v>81.657783788083677</v>
+        <v>0.81657783788083682</v>
       </c>
       <c r="P6">
         <v>5.4516277945088037E-2</v>
@@ -1444,46 +1445,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.26717557251908397</v>
+        <v>2.6717557251908397E-3</v>
       </c>
       <c r="C7">
-        <v>8.3084323300051027E-2</v>
+        <v>8.3084323300051032E-4</v>
       </c>
       <c r="D7" s="5">
-        <v>3.5126421177668421</v>
+        <v>3.512642117766842E-2</v>
       </c>
       <c r="E7">
-        <v>2.8222244921257711</v>
+        <v>2.822224492125771E-2</v>
       </c>
       <c r="F7">
-        <v>3.3966572579366341</v>
+        <v>3.396657257936634E-2</v>
       </c>
       <c r="G7">
-        <v>90.755981673171561</v>
+        <v>0.9075598167317156</v>
       </c>
       <c r="H7">
-        <v>93.101562828593572</v>
+        <v>0.93101562828593576</v>
       </c>
       <c r="I7">
-        <v>90.102993879039673</v>
+        <v>0.90102993879039672</v>
       </c>
       <c r="J7">
-        <v>10.794246404002502</v>
+        <v>0.10794246404002501</v>
       </c>
       <c r="K7">
-        <v>3.9001258105100161</v>
+        <v>3.9001258105100162E-2</v>
       </c>
       <c r="L7">
-        <v>4.5008352557473552</v>
+        <v>4.5008352557473555E-2</v>
       </c>
       <c r="M7">
-        <v>53.971232020012508</v>
+        <v>0.53971232020012505</v>
       </c>
       <c r="N7">
-        <v>89.330300977450889</v>
+        <v>0.89330300977450894</v>
       </c>
       <c r="O7">
-        <v>86.158619043831038</v>
+        <v>0.86158619043831042</v>
       </c>
       <c r="P7">
         <v>3.9172583587962453E-2</v>
@@ -1527,46 +1528,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.53435114503816794</v>
+        <v>5.3435114503816794E-3</v>
       </c>
       <c r="C8">
-        <v>0.23176153341593178</v>
+        <v>2.3176153341593177E-3</v>
       </c>
       <c r="D8" s="5">
-        <v>2.2060071270999493</v>
+        <v>2.2060071270999494E-2</v>
       </c>
       <c r="E8">
-        <v>1.8290081656442088</v>
+        <v>1.8290081656442088E-2</v>
       </c>
       <c r="F8">
-        <v>2.2220195997589673</v>
+        <v>2.2220195997589672E-2</v>
       </c>
       <c r="G8">
-        <v>92.961988800271513</v>
+        <v>0.92961988800271511</v>
       </c>
       <c r="H8">
-        <v>94.930570994237783</v>
+        <v>0.94930570994237784</v>
       </c>
       <c r="I8">
-        <v>92.325013478798638</v>
+        <v>0.92325013478798634</v>
       </c>
       <c r="J8">
-        <v>10.681676047529706</v>
+        <v>0.10681676047529706</v>
       </c>
       <c r="K8">
-        <v>2.5791154553372686</v>
+        <v>2.5791154553372685E-2</v>
       </c>
       <c r="L8">
-        <v>3.0626044069684193</v>
+        <v>3.0626044069684194E-2</v>
       </c>
       <c r="M8">
-        <v>64.652908067542214</v>
+        <v>0.64652908067542214</v>
       </c>
       <c r="N8">
-        <v>91.909416432788149</v>
+        <v>0.91909416432788149</v>
       </c>
       <c r="O8">
-        <v>89.221223450799457</v>
+        <v>0.89221223450799458</v>
       </c>
       <c r="P8">
         <v>2.833527510936229E-2</v>
@@ -1610,46 +1611,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.1323155216284988</v>
+        <v>1.1323155216284988E-2</v>
       </c>
       <c r="C9">
-        <v>0.5568107280810437</v>
+        <v>5.5681072808104366E-3</v>
       </c>
       <c r="D9" s="5">
-        <v>1.5696589173595792</v>
+        <v>1.5696589173595791E-2</v>
       </c>
       <c r="E9">
-        <v>1.1512416706223074</v>
+        <v>1.1512416706223074E-2</v>
       </c>
       <c r="F9">
-        <v>1.6241952364339858</v>
+        <v>1.6241952364339857E-2</v>
       </c>
       <c r="G9">
-        <v>94.531647717631088</v>
+        <v>0.94531647717631084</v>
       </c>
       <c r="H9">
-        <v>96.081812664860095</v>
+        <v>0.960818126648601</v>
       </c>
       <c r="I9">
-        <v>93.949208715232629</v>
+        <v>0.93949208715232624</v>
       </c>
       <c r="J9">
-        <v>9.4058786741713565</v>
+        <v>9.4058786741713571E-2</v>
       </c>
       <c r="K9">
-        <v>1.6839252879125133</v>
+        <v>1.6839252879125133E-2</v>
       </c>
       <c r="L9">
-        <v>2.2480311828812343</v>
+        <v>2.2480311828812341E-2</v>
       </c>
       <c r="M9">
-        <v>74.058786741713561</v>
+        <v>0.74058786741713556</v>
       </c>
       <c r="N9">
-        <v>93.593341720700664</v>
+        <v>0.93593341720700662</v>
       </c>
       <c r="O9">
-        <v>91.469254633680691</v>
+        <v>0.91469254633680697</v>
       </c>
       <c r="P9">
         <v>2.4158624782924094E-2</v>
@@ -1693,46 +1694,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.4300254452926207</v>
+        <v>2.4300254452926207E-2</v>
       </c>
       <c r="C10">
-        <v>1.4226368340499962</v>
+        <v>1.4226368340499961E-2</v>
       </c>
       <c r="D10" s="5">
-        <v>1.1920923129136265</v>
+        <v>1.1920923129136264E-2</v>
       </c>
       <c r="E10">
-        <v>0.86823810754135389</v>
+        <v>8.6823810754135394E-3</v>
       </c>
       <c r="F10">
-        <v>1.2111097015635406</v>
+        <v>1.2111097015635406E-2</v>
       </c>
       <c r="G10">
-        <v>95.723740030544718</v>
+        <v>0.95723740030544713</v>
       </c>
       <c r="H10">
-        <v>96.95005077240144</v>
+        <v>0.96950050772401442</v>
       </c>
       <c r="I10">
-        <v>95.160318416796159</v>
+        <v>0.95160318416796164</v>
       </c>
       <c r="J10">
-        <v>8.5803627267041893</v>
+        <v>8.5803627267041896E-2</v>
       </c>
       <c r="K10">
-        <v>1.4177876705700183</v>
+        <v>1.4177876705700183E-2</v>
       </c>
       <c r="L10">
-        <v>1.721422321215496</v>
+        <v>1.7214223212154961E-2</v>
       </c>
       <c r="M10">
-        <v>82.639149468417756</v>
+        <v>0.82639149468417761</v>
       </c>
       <c r="N10">
-        <v>95.011129391270686</v>
+        <v>0.95011129391270688</v>
       </c>
       <c r="O10">
-        <v>93.19067695489619</v>
+        <v>0.9319067695489619</v>
       </c>
       <c r="P10">
         <v>2.3246356422149436E-2</v>
@@ -1776,46 +1777,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.8346055979643765</v>
+        <v>4.8346055979643768E-2</v>
       </c>
       <c r="C11">
-        <v>3.652794985788208</v>
+        <v>3.6527949857882082E-2</v>
       </c>
       <c r="D11" s="5">
-        <v>0.95027999321228573</v>
+        <v>9.5027999321228573E-3</v>
       </c>
       <c r="E11">
-        <v>0.63510566067211849</v>
+        <v>6.3510566067211845E-3</v>
       </c>
       <c r="F11">
-        <v>0.94748025752434106</v>
+        <v>9.4748025752434111E-3</v>
       </c>
       <c r="G11">
-        <v>96.674020023756995</v>
+        <v>0.9667402002375699</v>
       </c>
       <c r="H11">
-        <v>97.585156433073564</v>
+        <v>0.97585156433073561</v>
       </c>
       <c r="I11">
-        <v>96.107798674320506</v>
+        <v>0.9610779867432051</v>
       </c>
       <c r="J11">
-        <v>6.5040650406504072</v>
+        <v>6.5040650406504072E-2</v>
       </c>
       <c r="K11">
-        <v>1.0742282009097068</v>
+        <v>1.0742282009097069E-2</v>
       </c>
       <c r="L11">
-        <v>1.2807254792777027</v>
+        <v>1.2807254792777027E-2</v>
       </c>
       <c r="M11">
-        <v>89.143214509068173</v>
+        <v>0.89143214509068169</v>
       </c>
       <c r="N11">
-        <v>96.085357592180401</v>
+        <v>0.96085357592180398</v>
       </c>
       <c r="O11">
-        <v>94.471402434173896</v>
+        <v>0.94471402434173901</v>
       </c>
       <c r="P11">
         <v>2.521377854960322E-2</v>
@@ -1859,46 +1860,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.4529262086513999</v>
+        <v>9.4529262086513993E-2</v>
       </c>
       <c r="C12">
-        <v>8.6509729611544355</v>
+        <v>8.650972961154435E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>0.75937553029017479</v>
+        <v>7.5937553029017477E-3</v>
       </c>
       <c r="E12">
-        <v>0.43502033900341885</v>
+        <v>4.3502033900341885E-3</v>
       </c>
       <c r="F12">
-        <v>0.7425232311058958</v>
+        <v>7.4252323110589576E-3</v>
       </c>
       <c r="G12">
-        <v>97.433395554047181</v>
+        <v>0.97433395554047175</v>
       </c>
       <c r="H12">
-        <v>98.020176772076979</v>
+        <v>0.98020176772076983</v>
       </c>
       <c r="I12">
-        <v>96.850321905426412</v>
+        <v>0.96850321905426418</v>
       </c>
       <c r="J12">
-        <v>5.0156347717323326</v>
+        <v>5.015634771732333E-2</v>
       </c>
       <c r="K12">
-        <v>0.74518532855898578</v>
+        <v>7.4518532855898578E-3</v>
       </c>
       <c r="L12">
-        <v>1.0023068968260282</v>
+        <v>1.0023068968260282E-2</v>
       </c>
       <c r="M12">
-        <v>94.15884928080051</v>
+        <v>0.94158849280800505</v>
       </c>
       <c r="N12">
-        <v>96.830542920739376</v>
+        <v>0.96830542920739371</v>
       </c>
       <c r="O12">
-        <v>95.473709330999924</v>
+        <v>0.95473709330999923</v>
       </c>
       <c r="P12">
         <v>2.6972368160735092E-2</v>
@@ -1942,46 +1943,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.206106870229007</v>
+        <v>0.13206106870229006</v>
       </c>
       <c r="C13">
-        <v>14.837110997740691</v>
+        <v>0.14837110997740691</v>
       </c>
       <c r="D13" s="5">
-        <v>0.58544035296114039</v>
+        <v>5.8544035296114036E-3</v>
       </c>
       <c r="E13">
-        <v>0.34849695666019748</v>
+        <v>3.4849695666019746E-3</v>
       </c>
       <c r="F13">
-        <v>0.60218515112111892</v>
+        <v>6.0218515112111896E-3</v>
       </c>
       <c r="G13">
-        <v>98.018835907008324</v>
+        <v>0.98018835907008328</v>
       </c>
       <c r="H13">
-        <v>98.368673728737178</v>
+        <v>0.98368673728737177</v>
       </c>
       <c r="I13">
-        <v>97.452507056547518</v>
+        <v>0.97452507056547522</v>
       </c>
       <c r="J13">
-        <v>3.1769856160100063</v>
+        <v>3.1769856160100064E-2</v>
       </c>
       <c r="K13">
-        <v>0.63389141585212427</v>
+        <v>6.3389141585212423E-3</v>
       </c>
       <c r="L13">
-        <v>0.8098003341022989</v>
+        <v>8.0980033410229888E-3</v>
       </c>
       <c r="M13">
-        <v>97.335834896810496</v>
+        <v>0.97335834896810491</v>
       </c>
       <c r="N13">
-        <v>97.464434336591495</v>
+        <v>0.97464434336591499</v>
       </c>
       <c r="O13">
-        <v>96.283509665102216</v>
+        <v>0.96283509665102218</v>
       </c>
       <c r="P13">
         <v>2.7423006748587633E-2</v>
@@ -2025,46 +2026,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.463104325699746</v>
+        <v>0.16463104325699746</v>
       </c>
       <c r="C14">
-        <v>18.943225712411632</v>
+        <v>0.18943225712411632</v>
       </c>
       <c r="D14" s="5">
-        <v>0.5811980315628712</v>
+        <v>5.811980315628712E-3</v>
       </c>
       <c r="E14">
-        <v>0.30223098137944709</v>
+        <v>3.022309813794471E-3</v>
       </c>
       <c r="F14">
-        <v>0.4955440677428562</v>
+        <v>4.9554406774285622E-3</v>
       </c>
       <c r="G14">
-        <v>98.600033938571187</v>
+        <v>0.98600033938571185</v>
       </c>
       <c r="H14">
-        <v>98.670904710116631</v>
+        <v>0.98670904710116636</v>
       </c>
       <c r="I14">
-        <v>97.948051124290387</v>
+        <v>0.97948051124290392</v>
       </c>
       <c r="J14">
-        <v>1.638524077548468</v>
+        <v>1.6385240775484679E-2</v>
       </c>
       <c r="K14">
-        <v>0.43065905351785544</v>
+        <v>4.3065905351785541E-3</v>
       </c>
       <c r="L14">
-        <v>0.63956725797470371</v>
+        <v>6.3956725797470367E-3</v>
       </c>
       <c r="M14">
-        <v>98.974358974358978</v>
+        <v>0.98974358974358978</v>
       </c>
       <c r="N14">
-        <v>97.895093390109352</v>
+        <v>0.97895093390109356</v>
       </c>
       <c r="O14">
-        <v>96.92307692307692</v>
+        <v>0.96923076923076923</v>
       </c>
       <c r="P14">
         <v>2.7269130157613595E-2</v>
@@ -2108,46 +2109,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.150127226463106</v>
+        <v>0.17150127226463105</v>
       </c>
       <c r="C15">
-        <v>18.675023686320237</v>
+        <v>0.18675023686320238</v>
       </c>
       <c r="D15" s="5">
-        <v>0.33938571186153066</v>
+        <v>3.3938571186153065E-3</v>
       </c>
       <c r="E15">
-        <v>0.23553587415654723</v>
+        <v>2.3553587415654723E-3</v>
       </c>
       <c r="F15">
-        <v>0.40277821826139359</v>
+        <v>4.0277821826139358E-3</v>
       </c>
       <c r="G15">
-        <v>98.939419650432711</v>
+        <v>0.98939419650432714</v>
       </c>
       <c r="H15">
-        <v>98.90644058427317</v>
+        <v>0.9890644058427317</v>
       </c>
       <c r="I15">
-        <v>98.350829342551776</v>
+        <v>0.98350829342551771</v>
       </c>
       <c r="J15">
-        <v>0.73796122576610379</v>
+        <v>7.3796122576610381E-3</v>
       </c>
       <c r="K15">
-        <v>0.37743153004935642</v>
+        <v>3.7743153004935644E-3</v>
       </c>
       <c r="L15">
-        <v>0.57433776151459703</v>
+        <v>5.7433776151459707E-3</v>
       </c>
       <c r="M15">
-        <v>99.712320200125077</v>
+        <v>0.99712320200125082</v>
       </c>
       <c r="N15">
-        <v>98.272524920158716</v>
+        <v>0.98272524920158721</v>
       </c>
       <c r="O15">
-        <v>97.497414684591519</v>
+        <v>0.97497414684591521</v>
       </c>
       <c r="P15">
         <v>2.5477566991272998E-2</v>
@@ -2191,46 +2192,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.944020356234097</v>
+        <v>0.13944020356234096</v>
       </c>
       <c r="C16">
-        <v>14.246775016398223</v>
+        <v>0.14246775016398222</v>
       </c>
       <c r="D16" s="5">
-        <v>0.2078737485151875</v>
+        <v>2.078737485151875E-3</v>
       </c>
       <c r="E16">
-        <v>0.18386218747934555</v>
+        <v>1.8386218747934555E-3</v>
       </c>
       <c r="F16">
-        <v>0.29732644064571373</v>
+        <v>2.9732644064571372E-3</v>
       </c>
       <c r="G16">
-        <v>99.147293398947895</v>
+        <v>0.991472933989479</v>
       </c>
       <c r="H16">
-        <v>99.090302771752519</v>
+        <v>0.99090302771752514</v>
       </c>
       <c r="I16">
-        <v>98.648155783197495</v>
+        <v>0.986481557831975</v>
       </c>
       <c r="J16">
-        <v>0.11257035647279549</v>
+        <v>1.125703564727955E-3</v>
       </c>
       <c r="K16">
-        <v>0.2709764831123585</v>
+        <v>2.7097648311235848E-3</v>
       </c>
       <c r="L16">
-        <v>0.44865165857926975</v>
+        <v>4.4865165857926976E-3</v>
       </c>
       <c r="M16">
-        <v>99.824890556597879</v>
+        <v>0.99824890556597878</v>
       </c>
       <c r="N16">
-        <v>98.543501403271065</v>
+        <v>0.98543501403271061</v>
       </c>
       <c r="O16">
-        <v>97.946066343170784</v>
+        <v>0.97946066343170779</v>
       </c>
       <c r="P16">
         <v>2.2092281989844146E-2</v>
@@ -2274,46 +2275,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.0203562340966918</v>
+        <v>9.0203562340966922E-2</v>
       </c>
       <c r="C17">
-        <v>9.0314117046862474</v>
+        <v>9.0314117046862472E-2</v>
       </c>
       <c r="D17" s="5">
-        <v>0.26302392669268626</v>
+        <v>2.6302392669268625E-3</v>
       </c>
       <c r="E17">
-        <v>0.14841163499149787</v>
+        <v>1.4841163499149787E-3</v>
       </c>
       <c r="F17">
-        <v>0.27155814912308524</v>
+        <v>2.7155814912308523E-3</v>
       </c>
       <c r="G17">
-        <v>99.410317325640591</v>
+        <v>0.99410317325640596</v>
       </c>
       <c r="H17">
-        <v>99.238714406744023</v>
+        <v>0.99238714406744022</v>
       </c>
       <c r="I17">
-        <v>98.919713932320576</v>
+        <v>0.98919713932320574</v>
       </c>
       <c r="J17">
-        <v>3.7523452157598502E-2</v>
+        <v>3.7523452157598504E-4</v>
       </c>
       <c r="K17">
-        <v>0.21774895964385946</v>
+        <v>2.1774895964385946E-3</v>
       </c>
       <c r="L17">
-        <v>0.39455890541723015</v>
+        <v>3.9455890541723014E-3</v>
       </c>
       <c r="M17">
-        <v>99.862414008755479</v>
+        <v>0.99862414008755485</v>
       </c>
       <c r="N17">
-        <v>98.761250362914936</v>
+        <v>0.98761250362914932</v>
       </c>
       <c r="O17">
-        <v>98.340625248588026</v>
+        <v>0.98340625248588021</v>
       </c>
       <c r="P17">
         <v>1.8168428920006155E-2</v>
@@ -2357,46 +2358,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.8727735368956742</v>
+        <v>4.8727735368956741E-2</v>
       </c>
       <c r="C18">
-        <v>4.6658406821660225</v>
+        <v>4.6658406821660225E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>0.14848124893941964</v>
+        <v>1.4848124893941965E-3</v>
       </c>
       <c r="E18">
-        <v>0.14180220995139067</v>
+        <v>1.4180220995139068E-3</v>
       </c>
       <c r="F18">
-        <v>0.2243823538739653</v>
+        <v>2.243823538739653E-3</v>
       </c>
       <c r="G18">
-        <v>99.55879857458001</v>
+        <v>0.9955879857458001</v>
       </c>
       <c r="H18">
-        <v>99.380516616695402</v>
+        <v>0.99380516616695402</v>
       </c>
       <c r="I18">
-        <v>99.144096286194539</v>
+        <v>0.99144096286194539</v>
       </c>
       <c r="J18">
-        <v>6.2539086929330828E-2</v>
+        <v>6.2539086929330832E-4</v>
       </c>
       <c r="K18">
-        <v>0.24678215426304073</v>
+        <v>2.4678215426304074E-3</v>
       </c>
       <c r="L18">
-        <v>0.33887518892689528</v>
+        <v>3.3887518892689529E-3</v>
       </c>
       <c r="M18">
-        <v>99.924953095684799</v>
+        <v>0.99924953095684799</v>
       </c>
       <c r="N18">
-        <v>99.008032517177966</v>
+        <v>0.99008032517177968</v>
       </c>
       <c r="O18">
-        <v>98.679500437514918</v>
+        <v>0.98679500437514922</v>
       </c>
       <c r="P18">
         <v>1.3409245784880525E-2</v>
@@ -2440,46 +2441,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.7862595419847329</v>
+        <v>2.7862595419847327E-2</v>
       </c>
       <c r="C19">
-        <v>2.2461919685154141</v>
+        <v>2.2461919685154142E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>0.13999660614288137</v>
+        <v>1.3999660614288137E-3</v>
       </c>
       <c r="E19">
-        <v>0.13098678715848799</v>
+        <v>1.3098678715848799E-3</v>
       </c>
       <c r="F19">
-        <v>0.18117091116678824</v>
+        <v>1.8117091116678823E-3</v>
       </c>
       <c r="G19">
-        <v>99.698795180722882</v>
+        <v>0.99698795180722888</v>
       </c>
       <c r="H19">
-        <v>99.511503403853894</v>
+        <v>0.99511503403853896</v>
       </c>
       <c r="I19">
-        <v>99.325267197361327</v>
+        <v>0.99325267197361322</v>
       </c>
       <c r="J19">
-        <v>1.2507817385866166E-2</v>
+        <v>1.2507817385866166E-4</v>
       </c>
       <c r="K19">
-        <v>0.23710442272331364</v>
+        <v>2.3710442272331365E-3</v>
       </c>
       <c r="L19">
-        <v>0.28319147243656034</v>
+        <v>2.8319147243656036E-3</v>
       </c>
       <c r="M19">
-        <v>99.937460913070666</v>
+        <v>0.99937460913070664</v>
       </c>
       <c r="N19">
-        <v>99.245136939901286</v>
+        <v>0.99245136939901291</v>
       </c>
       <c r="O19">
-        <v>98.962691909951474</v>
+        <v>0.98962691909951472</v>
       </c>
       <c r="P19">
         <v>9.1996219032336058E-3</v>
@@ -2523,46 +2524,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.5012722646310432</v>
+        <v>1.5012722646310433E-2</v>
       </c>
       <c r="C20">
-        <v>1.1077909773340135</v>
+        <v>1.1077909773340135E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>8.9088749363651784E-2</v>
+        <v>8.9088749363651788E-4</v>
       </c>
       <c r="E20">
-        <v>0.11836879390010155</v>
+        <v>1.1836879390010155E-3</v>
       </c>
       <c r="F20">
-        <v>0.15897053693190827</v>
+        <v>1.5897053693190828E-3</v>
       </c>
       <c r="G20">
-        <v>99.787883930086537</v>
+        <v>0.99787883930086541</v>
       </c>
       <c r="H20">
-        <v>99.629872197753997</v>
+        <v>0.99629872197753999</v>
       </c>
       <c r="I20">
-        <v>99.484237734293231</v>
+        <v>0.99484237734293235</v>
       </c>
       <c r="J20">
-        <v>2.5015634771732333E-2</v>
+        <v>2.5015634771732333E-4</v>
       </c>
       <c r="K20">
-        <v>0.17903803348495112</v>
+        <v>1.7903803348495112E-3</v>
       </c>
       <c r="L20">
-        <v>0.25932702251213108</v>
+        <v>2.5932702251213109E-3</v>
       </c>
       <c r="M20">
-        <v>99.9624765478424</v>
+        <v>0.99962476547842405</v>
       </c>
       <c r="N20">
-        <v>99.424174973386243</v>
+        <v>0.99424174973386248</v>
       </c>
       <c r="O20">
-        <v>99.222018932463612</v>
+        <v>0.99222018932463607</v>
       </c>
       <c r="P20">
         <v>6.4298432657009076E-3</v>
@@ -2606,46 +2607,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.72519083969465647</v>
+        <v>7.2519083969465646E-3</v>
       </c>
       <c r="C21">
-        <v>0.52328547481961951</v>
+        <v>5.2328547481961954E-3</v>
       </c>
       <c r="D21" s="5">
-        <v>7.2119463770575251E-2</v>
+        <v>7.2119463770575255E-4</v>
       </c>
       <c r="E21">
-        <v>0.10214565971074753</v>
+        <v>1.0214565971074752E-3</v>
       </c>
       <c r="F21">
-        <v>0.1268592813421712</v>
+        <v>1.268592813421712E-3</v>
       </c>
       <c r="G21">
-        <v>99.860003393857127</v>
+        <v>0.99860003393857122</v>
       </c>
       <c r="H21">
-        <v>99.732017857464754</v>
+        <v>0.9973201785746475</v>
       </c>
       <c r="I21">
-        <v>99.611097015635409</v>
+        <v>0.99611097015635408</v>
       </c>
       <c r="J21">
-        <v>1.2507817385866166E-2</v>
+        <v>1.2507817385866166E-4</v>
       </c>
       <c r="K21">
-        <v>0.18387689925481468</v>
+        <v>1.8387689925481467E-3</v>
       </c>
       <c r="L21">
-        <v>0.18614270941054809</v>
+        <v>1.8614270941054809E-3</v>
       </c>
       <c r="M21">
-        <v>99.974984365228266</v>
+        <v>0.9997498436522827</v>
       </c>
       <c r="N21">
-        <v>99.608051872641056</v>
+        <v>0.99608051872641057</v>
       </c>
       <c r="O21">
-        <v>99.408161641874159</v>
+        <v>0.9940816164187416</v>
       </c>
       <c r="P21">
         <v>5.1988305379085976E-3</v>
@@ -2689,46 +2690,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.53435114503816794</v>
+        <v>5.3435114503816794E-3</v>
       </c>
       <c r="C22">
-        <v>0.39793018001603386</v>
+        <v>3.9793018001603384E-3</v>
       </c>
       <c r="D22" s="5">
-        <v>5.5150178177498725E-2</v>
+        <v>5.5150178177498723E-4</v>
       </c>
       <c r="E22">
-        <v>7.3905389084834974E-2</v>
+        <v>7.3905389084834977E-4</v>
       </c>
       <c r="F22">
-        <v>0.11338048269956551</v>
+        <v>1.1338048269956551E-3</v>
       </c>
       <c r="G22">
-        <v>99.915153572034626</v>
+        <v>0.99915153572034621</v>
       </c>
       <c r="H22">
-        <v>99.805923246549582</v>
+        <v>0.99805923246549577</v>
       </c>
       <c r="I22">
-        <v>99.724477498334977</v>
+        <v>0.99724477498334974</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.7744120778089625E-2</v>
+        <v>6.774412077808962E-4</v>
       </c>
       <c r="L22">
-        <v>0.18932463606713865</v>
+        <v>1.8932463606713865E-3</v>
       </c>
       <c r="M22">
-        <v>99.974984365228266</v>
+        <v>0.9997498436522827</v>
       </c>
       <c r="N22">
-        <v>99.675795993419143</v>
+        <v>0.99675795993419147</v>
       </c>
       <c r="O22">
-        <v>99.5974862779413</v>
+        <v>0.99597486277941305</v>
       </c>
       <c r="P22">
         <v>3.6820469983073574E-3</v>
@@ -2772,46 +2773,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.44529262086513993</v>
+        <v>4.4529262086513994E-3</v>
       </c>
       <c r="C23">
-        <v>0.23321915312295022</v>
+        <v>2.3321915312295022E-3</v>
       </c>
       <c r="D23" s="5">
-        <v>2.5453928389614799E-2</v>
+        <v>2.5453928389614799E-4</v>
       </c>
       <c r="E23">
-        <v>8.0514814124942172E-2</v>
+        <v>8.0514814124942177E-4</v>
       </c>
       <c r="F23">
-        <v>0.10862325964923408</v>
+        <v>1.0862325964923409E-3</v>
       </c>
       <c r="G23">
-        <v>99.940607500424221</v>
+        <v>0.99940607500424217</v>
       </c>
       <c r="H23">
-        <v>99.886438060674521</v>
+        <v>0.99886438060674521</v>
       </c>
       <c r="I23">
-        <v>99.833100757984212</v>
+        <v>0.99833100757984217</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.11613277847672505</v>
+        <v>1.1613277847672505E-3</v>
       </c>
       <c r="L23">
-        <v>0.15273247951634716</v>
+        <v>1.5273247951634716E-3</v>
       </c>
       <c r="M23">
-        <v>99.974984365228266</v>
+        <v>0.9997498436522827</v>
       </c>
       <c r="N23">
-        <v>99.791928771895869</v>
+        <v>0.99791928771895866</v>
       </c>
       <c r="O23">
-        <v>99.750218757457645</v>
+        <v>0.99750218757457643</v>
       </c>
       <c r="P23">
         <v>2.3081488646105822E-3</v>
@@ -2855,46 +2856,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.21628498727735368</v>
+        <v>2.1628498727735367E-3</v>
       </c>
       <c r="C24">
-        <v>0.18511770279134174</v>
+        <v>1.8511770279134173E-3</v>
       </c>
       <c r="D24" s="5">
-        <v>2.9696249787883929E-2</v>
+        <v>2.9696249787883929E-4</v>
       </c>
       <c r="E24">
-        <v>6.6094250401071933E-2</v>
+        <v>6.6094250401071931E-4</v>
       </c>
       <c r="F24">
-        <v>9.6333766769211251E-2</v>
+        <v>9.6333766769211252E-4</v>
       </c>
       <c r="G24">
-        <v>99.970303750212125</v>
+        <v>0.99970303750212119</v>
       </c>
       <c r="H24">
-        <v>99.952532311075586</v>
+        <v>0.99952532311075581</v>
       </c>
       <c r="I24">
-        <v>99.929434524753418</v>
+        <v>0.99929434524753413</v>
       </c>
       <c r="J24">
-        <v>1.2507817385866166E-2</v>
+        <v>1.2507817385866166E-4</v>
       </c>
       <c r="K24">
-        <v>8.2260718087680249E-2</v>
+        <v>8.2260718087680252E-4</v>
       </c>
       <c r="L24">
-        <v>0.13045899292021318</v>
+        <v>1.3045899292021318E-3</v>
       </c>
       <c r="M24">
-        <v>99.987492182614133</v>
+        <v>0.99987492182614135</v>
       </c>
       <c r="N24">
-        <v>99.87418948998355</v>
+        <v>0.99874189489983545</v>
       </c>
       <c r="O24">
-        <v>99.880677750377856</v>
+        <v>0.99880677750377855</v>
       </c>
       <c r="P24">
         <v>1.8465190916884659E-3</v>
@@ -2938,46 +2939,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.15267175572519084</v>
+        <v>1.5267175572519084E-3</v>
       </c>
       <c r="C25">
-        <v>0.16616864660010205</v>
+        <v>1.6616864660010206E-3</v>
       </c>
       <c r="D25" s="5">
-        <v>2.9696249787883929E-2</v>
+        <v>2.9696249787883929E-4</v>
       </c>
       <c r="E25">
-        <v>4.7467688924406205E-2</v>
+        <v>4.7467688924406206E-4</v>
       </c>
       <c r="F25">
-        <v>7.0565475246582729E-2</v>
+        <v>7.0565475246582728E-4</v>
       </c>
       <c r="G25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1.2507817385866166E-2</v>
+        <v>1.2507817385866166E-4</v>
       </c>
       <c r="K25">
-        <v>0.12581051001645216</v>
+        <v>1.2581051001645217E-3</v>
       </c>
       <c r="L25">
-        <v>0.1193222496221462</v>
+        <v>1.193222496221462E-3</v>
       </c>
       <c r="M25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>9.5623310105295552E-4</v>
@@ -3023,7 +3024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3905,10 +3906,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
